--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -124,7 +124,7 @@
     <t>SCR_-_SOP_-_Validate_UGC,SCR_Onboarding_Training,Process_Definition,EU_RSU,User_attends_a_NIO_event</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Answers_Debug,5_Year_Budget,Process_Broadcasting,EU_Office_location_Selection</t>
+    <t>SCR_-_SOP_-_Answers_Debug,5_Year_Budget ,Process_Broadcasting,EU_Office_location_Selection</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Evaluation,IT_Hardware</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
   <si>
     <t>System</t>
   </si>
@@ -103,13 +103,16 @@
     <t>VAM_EU</t>
   </si>
   <si>
+    <t>VOM</t>
+  </si>
+  <si>
     <t>LINK</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Rebook_Testdrive,Contract_Standard,Train_the_Trainer_Program,SCR_Vendor_Payment</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Buy_a_car,Process_Identification,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deal_with_any_subscription_cars_delivery-related_issues_with_RDC,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
+    <t>SCR_-_SOP_-_Buy_a_car,Process_Identification,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Activate_Home_Charger,Request_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security</t>
@@ -151,7 +154,10 @@
     <t>Request_Systen_Access,User_Change_of_Ownership,eLearning_System_Management,Product_Launch_Training_Preparation,Emergency_Handling_Process</t>
   </si>
   <si>
-    <t>Deal_with_any_subscription_cars_delivery-related_issues_with_RDC,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
+    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
+  </si>
+  <si>
+    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,22 +577,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -597,22 +603,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -623,22 +629,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -649,22 +655,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -675,22 +681,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -701,22 +707,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -727,22 +733,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -753,22 +759,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -779,22 +785,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -805,22 +811,22 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -831,22 +837,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -857,22 +863,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -883,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -909,22 +915,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -935,22 +941,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -961,22 +967,22 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -987,22 +993,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1013,22 +1019,22 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1039,22 +1045,22 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1065,22 +1071,22 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1091,22 +1097,22 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1117,10 +1123,24 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="D23" t="s">
-        <v>45</v>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>System</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Can Edit</t>
   </si>
   <si>
-    <t>CMP</t>
+    <t>CMP_content_management_portal</t>
   </si>
   <si>
     <t>Titan</t>
@@ -49,15 +49,9 @@
     <t>Genesys</t>
   </si>
   <si>
-    <t>NIO_Home</t>
-  </si>
-  <si>
     <t>Welearn</t>
   </si>
   <si>
-    <t>EU_Wiki</t>
-  </si>
-  <si>
     <t>Workflow</t>
   </si>
   <si>
@@ -73,7 +67,7 @@
     <t>NIO_Chat</t>
   </si>
   <si>
-    <t>NAS</t>
+    <t>NAS_NIO_after_sales_system</t>
   </si>
   <si>
     <t>Nuwa</t>
@@ -100,64 +94,73 @@
     <t>Gire</t>
   </si>
   <si>
-    <t>VAM_EU</t>
+    <t>VAM_EU_vehicle_asset_management</t>
   </si>
   <si>
     <t>VOM</t>
   </si>
   <si>
+    <t>VIS</t>
+  </si>
+  <si>
+    <t>No_system_used</t>
+  </si>
+  <si>
     <t>LINK</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Rebook_Testdrive,Contract_Standard,Train_the_Trainer_Program,SCR_Vendor_Payment</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Buy_a_car,Process_Identification,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Activate_Home_Charger,Request_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_User_Account_Deletion,SCR_Shift_Management,Market_Launch Cadence confirm,EU_Travel_Policy,User_attends_a_NIO_event</t>
-  </si>
-  <si>
-    <t>SCR_Wiki_Management,Execute_Training_Sessions,EU_Company_Car_Policy</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Validate_UGC,SCR_Onboarding_Training,Process_Definition,EU_RSU,User_attends_a_NIO_event</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Answers_Debug,5_Year_Budget ,Process_Broadcasting,EU_Office_location_Selection</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Evaluation,IT_Hardware</t>
+    <t>SCR_-_SOP_-_Rebook_Testdrive,Train_the_Trainer_Operation,SCR_Vendor_Payment</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,test_process</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Activate_Home_Charger,Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_User_Account_Deletion,SCR_Shift_Management,Market_Entry_Cadence_Announcement_Standard,EU_Travel_Policy,NIO_House_Event_operation</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Validate_UGC,SCR_Onboarding_Training,SOP_Process_PMO_collection,EU_RSU_Policy,NIO_House_Event_operation</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Purchasing_process</t>
+  </si>
+  <si>
+    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA)</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Cancel_Testdrive,Training_Quality_Evaluation_Process,Event_market_product_Launch_preparation</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Test_Drive_Request,User_Request_Leasing,Agent_Performance_Review</t>
+  </si>
+  <si>
+    <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,SCR_FAQ_Update,Standard_Purchase_Process</t>
+  </si>
+  <si>
+    <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,SCR_FAQ_Update,Standard_Purchase_Process,SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request</t>
+  </si>
+  <si>
+    <t>Holiday_Policy,NIO_Life_return_order_process,Wiki_Update,NCP_Policy</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management</t>
   </si>
   <si>
     <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Cancel_Testdrive,Evaluate_Training_Session,Event_market_product_Launch_preparation</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Test_Drive_Request,User_Request_Leasing,Prepare_Training_Session,Agent_Performance_Review</t>
-  </si>
-  <si>
-    <t>Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,SCR_FAQ_Update,Internal_Vendor_Purchase_Process</t>
-  </si>
-  <si>
-    <t>Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,SCR_FAQ_Update,Internal_Vendor_Purchase_Process,SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request</t>
-  </si>
-  <si>
-    <t>Holiday_Policy,Return_NIO_Accessory_NIO_Life,Wiki_Update,NCP_Policy</t>
-  </si>
-  <si>
-    <t>Request_Systen_Access,User_Change_of_Ownership,eLearning_System_Management,Product_Launch_Training_Preparation,Emergency_Handling_Process</t>
+    <t>Colleague_Request_System_Access_Right,User_Change_of_Ownership,eLearning_System_Management,Product_Launch_Training_Operation,Emergency_Handling_Process</t>
   </si>
   <si>
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
   </si>
   <si>
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
+  </si>
+  <si>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA)</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>
@@ -583,16 +586,16 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -609,16 +612,16 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -635,16 +638,16 @@
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -661,16 +664,16 @@
         <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -687,16 +690,16 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -713,16 +716,16 @@
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -739,16 +742,16 @@
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -765,16 +768,16 @@
         <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -791,16 +794,16 @@
         <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -817,16 +820,16 @@
         <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -843,16 +846,16 @@
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -869,16 +872,16 @@
         <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -892,19 +895,19 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -918,19 +921,19 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -947,16 +950,16 @@
         <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -970,19 +973,19 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -996,19 +999,19 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1025,16 +1028,16 @@
         <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1048,19 +1051,19 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1074,19 +1077,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1100,19 +1091,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1125,9 +1104,6 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
@@ -1140,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1183,10 +1159,6 @@
     <hyperlink ref="F19" r:id="rId36"/>
     <hyperlink ref="E20" r:id="rId37"/>
     <hyperlink ref="F20" r:id="rId38"/>
-    <hyperlink ref="E21" r:id="rId39"/>
-    <hyperlink ref="F21" r:id="rId40"/>
-    <hyperlink ref="E22" r:id="rId41"/>
-    <hyperlink ref="F22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -37,7 +37,7 @@
     <t>Can Edit</t>
   </si>
   <si>
-    <t>CMP_content_management_portal</t>
+    <t>CMP_(content_management_portal)</t>
   </si>
   <si>
     <t>Titan</t>
@@ -67,7 +67,7 @@
     <t>NIO_Chat</t>
   </si>
   <si>
-    <t>NAS_NIO_after_sales_system</t>
+    <t>NAS_(NIO_after_sales_system)</t>
   </si>
   <si>
     <t>Nuwa</t>
@@ -94,7 +94,7 @@
     <t>Gire</t>
   </si>
   <si>
-    <t>VAM_EU_vehicle_asset_management</t>
+    <t>VAM_EU_(vehicle_asset_management)</t>
   </si>
   <si>
     <t>VOM</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -112,7 +112,7 @@
     <t>SCR_-_SOP_-_Rebook_Testdrive,Train_the_Trainer_Operation,SCR_Vendor_Payment</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,test_process</t>
+    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Activate_Home_Charger,Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy</t>
@@ -160,7 +160,7 @@
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA)</t>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -106,13 +106,13 @@
     <t>No_system_used</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Rebook_Testdrive,Train_the_Trainer_Operation,SCR_Vendor_Payment</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process</t>
+    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_test_drive_follow_up_sop</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Activate_Home_Charger,Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy</t>
@@ -160,7 +160,7 @@
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process</t>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>System</t>
   </si>
@@ -106,16 +106,37 @@
     <t>No_system_used</t>
   </si>
   <si>
+    <t>NIO_App</t>
+  </si>
+  <si>
+    <t>VLM</t>
+  </si>
+  <si>
+    <t>LOPA</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>UCLS</t>
+  </si>
+  <si>
+    <t>IPD++</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Rebook_Testdrive,Train_the_Trainer_Operation,SCR_Vendor_Payment</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_test_drive_follow_up_sop</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Activate_Home_Charger,Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy</t>
+    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_test_drive_follow_up_sop,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Activate_Home_Charger,Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy,NIO_Life_-_1900-190X - Internal Application,NIO_Life_-_APP_sales - Product launch,NIO_Life_-_APP_sales - After sales</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_User_Account_Deletion,SCR_Shift_Management,Market_Entry_Cadence_Announcement_Standard,EU_Travel_Policy,NIO_House_Event_operation</t>
@@ -124,16 +145,16 @@
     <t>SCR_-_SOP_-_Validate_UGC,SCR_Onboarding_Training,SOP_Process_PMO_collection,EU_RSU_Policy,NIO_House_Event_operation</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Purchasing_process</t>
-  </si>
-  <si>
-    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA)</t>
+    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Complete_Purchasing_process,EB_quartlery_5_year_budget_planning_process,Power_Procurement,Power_EU_Supply_Chain_Order_to_Delivery,Power_Procurement - Standard Process,Power_Procurement - Authorized Process,Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),NIO_Life_-_Export - Export for internal applicatioin,MSRP_Pricing_SOP</t>
+  </si>
+  <si>
+    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA),5yr_planning_flow,Create_a_new_promotion_,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,SUD_Experience_Confirmation</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Cancel_Testdrive,Training_Quality_Evaluation_Process,Event_market_product_Launch_preparation</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Test_Drive_Request,User_Request_Leasing,Agent_Performance_Review</t>
+    <t>SCR_-_SOP_-_Test_Drive_Request,User_Request_Leasing,Agent_Performance_Review,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step</t>
   </si>
   <si>
     <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,SCR_FAQ_Update,Standard_Purchase_Process</t>
@@ -154,13 +175,25 @@
     <t>Colleague_Request_System_Access_Right,User_Change_of_Ownership,eLearning_System_Management,Product_Launch_Training_Operation,Emergency_Handling_Process</t>
   </si>
   <si>
-    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related</t>
+    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
   </si>
   <si>
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor</t>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation, Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Leads Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Site inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Project approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Construction Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Civil Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - PUS Ready for Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process_,NIO_Life_-_Export,NIO_Life_-_Export - Planned export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X - New store opening,NIO_Life_-_1900-190X - Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup,EU_Legal_-_Data_Protection - Data Protection Risk Management</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Order_to_Delivery - User Orders via NIO_App</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting)</t>
+  </si>
+  <si>
+    <t>User_Closed-Loop</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>
@@ -543,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -606,22 +639,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -632,22 +665,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -658,22 +691,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -684,22 +717,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -710,22 +743,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -736,22 +769,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -762,22 +795,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -788,22 +821,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -814,22 +847,22 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -840,22 +873,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -866,22 +899,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -892,22 +925,22 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -918,22 +951,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -944,22 +977,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -970,22 +1003,22 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -996,22 +1029,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1022,22 +1055,22 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1048,22 +1081,22 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1074,10 +1107,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1088,10 +1121,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1102,7 +1135,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1113,10 +1146,116 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
-        <v>48</v>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>System</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation, Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Leads Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Site inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Project approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Construction Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Civil Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - PUS Ready for Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process_,NIO_Life_-_Export,NIO_Life_-_Export - Planned export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X - New store opening,NIO_Life_-_1900-190X - Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup,EU_Legal_-_Data_Protection - Data Protection Risk Management</t>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation, Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Leads Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Site inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Project approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Construction Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Civil Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - PUS Ready for Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process_,NIO_Life_-_Export,NIO_Life_-_Export - Planned export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X - New store opening,NIO_Life_-_1900-190X - Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup,EU_Legal_-_Data_Protection - Data Protection Risk Management,Long_term_volume_planning_,Competitor_definition,Pre_MP_and_launch_stock_ordering,Pricing</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Order_to_Delivery - User Orders via NIO_App</t>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting)</t>
+  </si>
+  <si>
+    <t>Option_offer,Product_briefing,GTM_cadence,GTM_milestone_adjustment</t>
   </si>
   <si>
     <t>User_Closed-Loop</t>
@@ -619,16 +622,16 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -645,16 +648,16 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -671,16 +674,16 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -697,16 +700,16 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -723,16 +726,16 @@
         <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -749,16 +752,16 @@
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -775,16 +778,16 @@
         <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -801,16 +804,16 @@
         <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -827,16 +830,16 @@
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -853,16 +856,16 @@
         <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -879,16 +882,16 @@
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -905,16 +908,16 @@
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -931,16 +934,16 @@
         <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -957,16 +960,16 @@
         <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -983,16 +986,16 @@
         <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1009,16 +1012,16 @@
         <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1035,16 +1038,16 @@
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1061,16 +1064,16 @@
         <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1087,16 +1090,16 @@
         <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1201,6 +1204,9 @@
       <c r="C28" t="s">
         <v>37</v>
       </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
@@ -1241,7 +1247,7 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1255,7 +1261,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>System</t>
   </si>
@@ -148,7 +148,7 @@
     <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Complete_Purchasing_process,EB_quartlery_5_year_budget_planning_process,Power_Procurement,Power_EU_Supply_Chain_Order_to_Delivery,Power_Procurement - Standard Process,Power_Procurement - Authorized Process,Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),NIO_Life_-_Export - Export for internal applicatioin,MSRP_Pricing_SOP</t>
   </si>
   <si>
-    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA),5yr_planning_flow,Create_a_new_promotion_,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,SUD_Experience_Confirmation</t>
+    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA),5yr_planning_flow,Create_a_new_promotion_,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,SUD_Experience_Confirmation,Long_term_volume_planning_,Option_offer,Pricing,Competitor_definition,Pre_MP_and_launch_stock_ordering,Product_briefing,GTM_cadence,GTM_milestone_adjustment,PMK_-_EU_OTA_Process</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Cancel_Testdrive,Training_Quality_Evaluation_Process,Event_market_product_Launch_preparation</t>
@@ -181,7 +181,7 @@
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation, Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Leads Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Site inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Project approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Construction Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Civil Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - PUS Ready for Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process_,NIO_Life_-_Export,NIO_Life_-_Export - Planned export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X - New store opening,NIO_Life_-_1900-190X - Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup,EU_Legal_-_Data_Protection - Data Protection Risk Management,Long_term_volume_planning_,Competitor_definition,Pre_MP_and_launch_stock_ordering,Pricing</t>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation, Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Leads Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Site inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Project approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Construction Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Civil Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - PUS Ready for Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process_,NIO_Life_-_Export,NIO_Life_-_Export - Planned export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X - New store opening,NIO_Life_-_1900-190X - Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup,EU_Legal_-_Data_Protection - Data Protection Risk Management</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Order_to_Delivery - User Orders via NIO_App</t>
@@ -193,7 +193,7 @@
     <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting)</t>
   </si>
   <si>
-    <t>Option_offer,Product_briefing,GTM_cadence,GTM_milestone_adjustment</t>
+    <t>Sales_Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan,Long_term_volume_planning_,Option_offer,Pricing</t>
   </si>
   <si>
     <t>User_Closed-Loop</t>
@@ -1204,9 +1204,6 @@
       <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
@@ -1219,7 +1216,7 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8">

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -37,7 +37,7 @@
     <t>Can Edit</t>
   </si>
   <si>
-    <t>CMP_(content_management_portal)</t>
+    <t>CMP_content_management_portal</t>
   </si>
   <si>
     <t>Titan</t>
@@ -67,7 +67,7 @@
     <t>NIO_Chat</t>
   </si>
   <si>
-    <t>NAS_(NIO_after_sales_system)</t>
+    <t>NAS_NIO_after_sales_system</t>
   </si>
   <si>
     <t>Nuwa</t>
@@ -94,7 +94,7 @@
     <t>Gire</t>
   </si>
   <si>
-    <t>VAM_EU_(vehicle_asset_management)</t>
+    <t>VAM_EU_vehicle_asset_management</t>
   </si>
   <si>
     <t>VOM</t>
@@ -133,10 +133,10 @@
     <t>SCR_-_SOP_-_Rebook_Testdrive,Train_the_Trainer_Operation,SCR_Vendor_Payment</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_test_drive_follow_up_sop,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Activate_Home_Charger,Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy,NIO_Life_-_1900-190X - Internal Application,NIO_Life_-_APP_sales - Product launch,NIO_Life_-_APP_sales - After sales</t>
+    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_test_drive_follow_up_sop,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Trade_Ins,RV_study_management</t>
+  </si>
+  <si>
+    <t>SCR_-_SOP_-_Activate_Home_Charger,Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_APP_sales_-_Product_launch,NIO_Life_-_APP_sales_-_After_sales</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_User_Account_Deletion,SCR_Shift_Management,Market_Entry_Cadence_Announcement_Standard,EU_Travel_Policy,NIO_House_Event_operation</t>
@@ -145,10 +145,10 @@
     <t>SCR_-_SOP_-_Validate_UGC,SCR_Onboarding_Training,SOP_Process_PMO_collection,EU_RSU_Policy,NIO_House_Event_operation</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Complete_Purchasing_process,EB_quartlery_5_year_budget_planning_process,Power_Procurement,Power_EU_Supply_Chain_Order_to_Delivery,Power_Procurement - Standard Process,Power_Procurement - Authorized Process,Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),NIO_Life_-_Export - Export for internal applicatioin,MSRP_Pricing_SOP</t>
-  </si>
-  <si>
-    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA),5yr_planning_flow,Create_a_new_promotion_,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,SUD_Experience_Confirmation,Long_term_volume_planning_,Option_offer,Pricing,Competitor_definition,Pre_MP_and_launch_stock_ordering,Product_briefing,GTM_cadence,GTM_milestone_adjustment,PMK_-_EU_OTA_Process</t>
+    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Complete_Purchasing_process,EB_quartlery_5_year_budget_planning_process,Power_Procurement,Power_EU_Supply_Chain_Order_to_Delivery,Power_Procurement_-_Standard_Process,Power_Procurement_-_Authorized_Process,Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),NIO_Life_-_Export_-_Export_for_internal_applicatioin,MSRP_Pricing_SOP</t>
+  </si>
+  <si>
+    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA),5yr_planning_flow,Create_a_new_promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,SUD_Experience_Confirmation,Long_term_volume_planning,Option_offer,Pricing,Competitor_definition,Pre_MP_and_launch_stock_ordering,Product_briefing,GTM_cadence,GTM_milestone_adjustment,PMK_-_EU_OTA_Process,Commercial_condition_for_special_deals,Commercial_condition_policies</t>
   </si>
   <si>
     <t>SCR_-_SOP_-_Cancel_Testdrive,Training_Quality_Evaluation_Process,Event_market_product_Launch_preparation</t>
@@ -175,25 +175,25 @@
     <t>Colleague_Request_System_Access_Right,User_Change_of_Ownership,eLearning_System_Management,Product_Launch_Training_Operation,Emergency_Handling_Process</t>
   </si>
   <si>
-    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
+    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
   </si>
   <si>
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation, Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Leads Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Site inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Project approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Leads to Contract - Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Construction Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Civil Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - PUS Ready for Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process - Contract to Operation - Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process_,NIO_Life_-_Export,NIO_Life_-_Export - Planned export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X - New store opening,NIO_Life_-_1900-190X - Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning - 5 yrs planning,Europe_Market_Planning - 5 yrs planning - 5 yrs sales volume planning,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe_Market_Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe_Market_Planning - Wave2 / Market Entry PMO,Europe_Market_Planning - Governance PMO,Europe_Market_Planning - Governance PMO - Entity setup,EU_Legal_-_Data_Protection - Data Protection Risk Management</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Order_to_Delivery - User Orders via NIO_App</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning - Supply Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Sales_Planning - Sales Performance Rolling Plan,Sales_Planning - Sales_Planning - Roadmap to Target(Target Streeting)</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning - Sales_Planning,Sales_Planning - Fleet Planning,Sales_Planning - Supply Planning - offering structure,Sales_Planning - Supply Planning - planning to production,Sales_Planning - Supply Planning - Allocation &amp; Re-allocation,Sales_Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales_Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan,Long_term_volume_planning_,Option_offer,Pricing</t>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr_test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting)</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Long_term_volume_planning,Option_offer,Pricing</t>
   </si>
   <si>
     <t>User_Closed-Loop</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -181,7 +181,7 @@
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy Impact Assessment (PIA),hr_test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management</t>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy_Impact_Assessment_-_PIA,hr_test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>System</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Can Edit</t>
   </si>
   <si>
-    <t>CMP_content_management_portal</t>
+    <t>CMP_-_content_management_portal</t>
   </si>
   <si>
     <t>Titan</t>
@@ -67,7 +67,7 @@
     <t>NIO_Chat</t>
   </si>
   <si>
-    <t>NAS_NIO_after_sales_system</t>
+    <t>NAS_-_NIO_after_sales_system</t>
   </si>
   <si>
     <t>Nuwa</t>
@@ -94,7 +94,7 @@
     <t>Gire</t>
   </si>
   <si>
-    <t>VAM_EU_vehicle_asset_management</t>
+    <t>VAM_EU_-_vehicle_asset_management</t>
   </si>
   <si>
     <t>VOM</t>
@@ -127,76 +127,97 @@
     <t>IPD++</t>
   </si>
   <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Rebook_Testdrive,Train_the_Trainer_Operation,SCR_Vendor_Payment</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Buy_a_car,5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_test_drive_follow_up_sop,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Trade_Ins,RV_study_management</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Activate_Home_Charger,Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_APP_sales_-_Product_launch,NIO_Life_-_APP_sales_-_After_sales</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_User_Account_Deletion,SCR_Shift_Management,Market_Entry_Cadence_Announcement_Standard,EU_Travel_Policy,NIO_House_Event_operation</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Validate_UGC,SCR_Onboarding_Training,SOP_Process_PMO_collection,EU_RSU_Policy,NIO_House_Event_operation</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Complete_Purchasing_process,EB_quartlery_5_year_budget_planning_process,Power_Procurement,Power_EU_Supply_Chain_Order_to_Delivery,Power_Procurement_-_Standard_Process,Power_Procurement_-_Authorized_Process,Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),NIO_Life_-_Export_-_Export_for_internal_applicatioin,MSRP_Pricing_SOP</t>
-  </si>
-  <si>
-    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA),5yr_planning_flow,Create_a_new_promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,SUD_Experience_Confirmation,Long_term_volume_planning,Option_offer,Pricing,Competitor_definition,Pre_MP_and_launch_stock_ordering,Product_briefing,GTM_cadence,GTM_milestone_adjustment,PMK_-_EU_OTA_Process,Commercial_condition_for_special_deals,Commercial_condition_policies</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Cancel_Testdrive,Training_Quality_Evaluation_Process,Event_market_product_Launch_preparation</t>
-  </si>
-  <si>
-    <t>SCR_-_SOP_-_Test_Drive_Request,User_Request_Leasing,Agent_Performance_Review,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step</t>
-  </si>
-  <si>
-    <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,SCR_FAQ_Update,Standard_Purchase_Process</t>
-  </si>
-  <si>
-    <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,SCR_FAQ_Update,Standard_Purchase_Process,SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request</t>
+    <t>Train_the_Trainer_Operation</t>
+  </si>
+  <si>
+    <t>5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_test_drive_follow_up_sop,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Trade_Ins,RV_study_management</t>
+  </si>
+  <si>
+    <t>Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_APP_sales_-_Product_launch,NIO_Life_-_APP_sales_-_After_sales</t>
+  </si>
+  <si>
+    <t>Market_Entry_Cadence_Announcement_Standard,EU_Travel_Policy,NIO_House_Event_operation</t>
+  </si>
+  <si>
+    <t>SOP_Process_PMO_collection,EU_RSU_Policy,NIO_House_Event_operation</t>
+  </si>
+  <si>
+    <t>5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Complete_Purchasing_process,EB_quartlery_5_year_budget_planning_process,Power_Procurement,Power_EU_Supply_Chain_Order_to_Delivery,Power_Procurement_-_Standard_Process,Power_Procurement_-_Authorized_Process,Power_EU_PUS_Leads_to_Operation_Q-300-B-1_EU_PUS_LTO,NIO_Life_-_Export_-_Export_for_internal_applicatioin,MSRP_Pricing_SOP,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_Process_-_RSA</t>
+  </si>
+  <si>
+    <t>5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA),5yr_planning_flow,Create_a_new_promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,SUD_Experience_Confirmation,Long_term_volume_planning,Option_offer,Pricing,Competitor_definition,Pre_MP_and_launch_stock_ordering,Product_briefing,GTM_cadence,GTM_milestone_adjustment,OTA_Process,Commercial_condition_for_special_deals,Commercial_condition_policies</t>
+  </si>
+  <si>
+    <t>Training_Quality_Evaluation_Process,Event_market_product_Launch_preparation</t>
+  </si>
+  <si>
+    <t>User_Request_Leasing,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step</t>
+  </si>
+  <si>
+    <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,Standard_Purchase_Process</t>
+  </si>
+  <si>
+    <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,Standard_Purchase_Process,EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Partners_Cooperation,EU_Service_-_After_service_-_Service_Partners_Cooperation_-_Service_Partners_Nomination_and_Cooperation_Process,EU_Service_-_After_service_-_Service_Product_-_Insurance_Product_Design_and_Operation_Process ,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_One_Click_Service_Operation_Process</t>
   </si>
   <si>
     <t>Holiday_Policy,NIO_Life_return_order_process,Wiki_Update,NCP_Policy</t>
   </si>
   <si>
-    <t>SCR_-_SOP_-_Handles_Low_Star,5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management</t>
-  </si>
-  <si>
-    <t>SCR_Complaint_Handling,5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave</t>
+    <t>5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management</t>
+  </si>
+  <si>
+    <t>5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave</t>
   </si>
   <si>
     <t>Colleague_Request_System_Access_Right,User_Change_of_Ownership,eLearning_System_Management,Product_Launch_Training_Operation,Emergency_Handling_Process</t>
   </si>
   <si>
-    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
+    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process</t>
   </si>
   <si>
     <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
   </si>
   <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy_Impact_Assessment_-_PIA,hr_test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App</t>
+    <t>Fellow_handles_a_Testdrive_Process,Privacy_Impact_Assessment_-_PIA,hr_test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Global_Processes,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Accident_Service_Operation_Process,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Tagging_SCR</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_One_Click_Service_Operation_Process</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Long_term_volume_planning,Option_offer,Pricing</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting)</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Long_term_volume_planning,Option_offer,Pricing</t>
-  </si>
-  <si>
     <t>User_Closed-Loop</t>
+  </si>
+  <si>
+    <t>EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_NSCHUB_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Partners_Cooperation,EU_Service_-_After_service_-_Service_Partners_Cooperation_-_Service_Partners_Nomination_and_Cooperation_Process,EU_Service_-_After_service_-_Service_Product_-_Insurance_Product_Design_and_Operation_Process ,EU_Service_-_After_service_-_Service_Product_-_Innovative_Service_Product_Design_and_Operation_Process</t>
+  </si>
+  <si>
+    <t>EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>
@@ -579,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,22 +637,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -642,22 +663,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -668,22 +689,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -694,22 +715,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -720,22 +741,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -746,22 +767,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -772,22 +793,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -798,22 +819,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -824,22 +845,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -850,22 +871,22 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -876,22 +897,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -902,22 +923,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -928,22 +949,22 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -954,22 +975,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -980,22 +1001,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1006,22 +1027,22 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1032,22 +1053,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1058,22 +1079,22 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1084,22 +1105,22 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1110,10 +1131,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1124,10 +1145,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1138,7 +1159,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1149,10 +1170,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1163,10 +1184,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1177,10 +1198,10 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1191,10 +1212,10 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1202,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1213,10 +1234,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1227,10 +1248,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1241,10 +1262,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1255,10 +1276,66 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="D32" t="s">
-        <v>60</v>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
   <si>
     <t>System</t>
   </si>
@@ -139,85 +139,109 @@
     <t>EPC</t>
   </si>
   <si>
+    <t>Lux-mate_database</t>
+  </si>
+  <si>
+    <t>IT_connection_Online</t>
+  </si>
+  <si>
+    <t>NUS</t>
+  </si>
+  <si>
+    <t>VPN_-_Virtual_Private_Network</t>
+  </si>
+  <si>
+    <t>OFS</t>
+  </si>
+  <si>
+    <t>Qomo</t>
+  </si>
+  <si>
+    <t>VWMS</t>
+  </si>
+  <si>
+    <t>Power_Charging_Issues_Response_Team</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
-    <t>Train_the_Trainer_Operation</t>
-  </si>
-  <si>
-    <t>5Y_Department_Budget_and_HC_Plan,EU_Reimbursement_Policy,User_wants_to_book_testdrive_online,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Deliver_subscription_cars,Subscription_cars_delivery-related,Fellow_complete_testdrive_process,Fellow_manually_books_testdrive_for_user,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,test_process,Fellow_test_drive_follow_up_sop,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Trade_Ins,RV_study_management</t>
-  </si>
-  <si>
-    <t>Colleague_Request_New_System_Feature,1Y_Department_Budget_and_HC_Plan,EU_Data_Security_Control_Policy,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_APP_sales_-_Product_launch,NIO_Life_-_APP_sales_-_After_sales</t>
-  </si>
-  <si>
-    <t>Market_Entry_Cadence_Announcement_Standard,EU_Travel_Policy,NIO_House_Event_operation</t>
-  </si>
-  <si>
-    <t>SOP_Process_PMO_collection,EU_RSU_Policy,NIO_House_Event_operation</t>
-  </si>
-  <si>
-    <t>5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management,Complete_Purchasing_process,EB_quartlery_5_year_budget_planning_process,Power_Procurement,Power_EU_Supply_Chain_Order_to_Delivery,Power_Procurement_-_Standard_Process,Power_Procurement_-_Authorized_Process,Power_EU_PUS_Leads_to_Operation_Q-300-B-1_EU_PUS_LTO,NIO_Life_-_Export_-_Export_for_internal_applicatioin,MSRP_Pricing_SOP,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_Process_-_RSA</t>
-  </si>
-  <si>
-    <t>5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave,Maintenance of Register of Processing Activities (RoPA),5yr_planning_flow,Create_a_new_promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,SUD_Experience_Confirmation,Long_term_volume_planning,Option_offer,Pricing,Competitor_definition,Pre_MP_and_launch_stock_ordering,Product_briefing,GTM_cadence,GTM_milestone_adjustment,OTA_Process,Commercial_condition_for_special_deals,Commercial_condition_policies</t>
-  </si>
-  <si>
-    <t>Training_Quality_Evaluation_Process,Event_market_product_Launch_preparation</t>
-  </si>
-  <si>
-    <t>User_Request_Leasing,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step</t>
-  </si>
-  <si>
-    <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,Standard_Purchase_Process</t>
-  </si>
-  <si>
-    <t>Recruiting_&amp;_Interview_Process,User_Request_Subscription_cancelation,Create_Course_Materials,Standard_Purchase_Process,EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Partners_Cooperation,EU_Service_-_After_service_-_Service_Partners_Cooperation_-_Service_Partners_Nomination_and_Cooperation_Process,EU_Service_-_After_service_-_Service_Product_-_Insurance_Product_Design_and_Operation_Process ,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_One_Click_Service_Operation_Process</t>
-  </si>
-  <si>
-    <t>Holiday_Policy,NIO_Life_return_order_process,Wiki_Update,NCP_Policy</t>
-  </si>
-  <si>
-    <t>5_Year_Sales_Volume_Calculation,Process_Survey_Evaluation,IT_Hardware_give_out_management</t>
-  </si>
-  <si>
-    <t>5_Year_Strategy_Planning_Presentation,Monthly_Process_Review,Sickness_Leave</t>
-  </si>
-  <si>
-    <t>Colleague_Request_System_Access_Right,User_Change_of_Ownership,eLearning_System_Management,Product_Launch_Training_Operation,Emergency_Handling_Process</t>
-  </si>
-  <si>
-    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Receive_subscription_order_from_user,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,Deliver_subscription_cars,Subscription_cars_delivery-related,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process</t>
-  </si>
-  <si>
-    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues</t>
-  </si>
-  <si>
-    <t>Fellow_handles_a_Testdrive_Process,Privacy_Impact_Assessment_-_PIA,hr_test_process,ud_publishes_a_pgc,Network_development_manager_selects_design_vendor,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_APP_sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Global_Processes,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Accident_Service_Operation_Process,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Tagging_SCR</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_One_Click_Service_Operation_Process</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan,Long_term_volume_planning,Option_offer,Pricing</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
+    <t>Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues,Fellow_Complete_Testdrive_Process,Msrp_Pricing_Sop,User Behavior Tracking System (Ubts),Market_Intelligence_EURope,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,SubSCRiption_Pricing_Definition,SubSCRipiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees_Management,Commercial_Condition_For_Special_Deals,Trade_Ins,Rv_Study_Management,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues)</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_App_Sales_-_Product_Launch,NIO_Life_-_App_Sales_-_After_Sales,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
+  </si>
+  <si>
+    <t>Complete_PURchasing_Process,Eb_Quartlery_5_Year_Budget_Planning_Process,Power_ProcURement,Power_EU_Supply_Chain_Order_To_Delivery,Power_ProcURement_-_Standard_Process,Power_ProcURement_-_Authorized_Process,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_LTO,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,Msrp_Pricing_Sop,Service_Sop_Blue_Book_-_Roadside_Assistance_Operation_Process_-_Rsa,Emergency_Response_-_EU_Emergency_Response_Process,Technical_Operation_-_Warranty_Policy_Release_And_Operation_Process,Technical_Operation_-_Maintenance_Policy_Release_And_Operation_Process,Technical_Operation_-_FRT_Management_Process,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Of Processing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,Msrp_Pricing_Sop,User Behavior Tracking System (Ubts),Market_Intelligence_EURope,Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_Mp_And_Launch_Stock_Ordering,Product_Briefing,Gtm_Cadence,Gtm_Milestone_Adjustment,OTA_Process,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_Order_ProcessLocal_SoURcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Sota&amp;Fota Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation</t>
+  </si>
+  <si>
+    <t>Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process,Service_Product_-_InsURance_Product_Design_And_Operation_Process,Service_Sop_Blue_Book_-_One_Click_Service_Operation_Process,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Sota&amp;Fota Update(Failed)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues,Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,User Behavior Tracking System (Ubts),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues</t>
+  </si>
+  <si>
+    <t>Fellow_Handles_A_Testdrive_Process,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval_Process,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_App_Sales,EU_Legal_-_Data_Protection,EURope_Market_Planning,EURope_Market_Planning_-_5_Yrs_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_FutURe_Portfolio_Mapping,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_InfrastURcutre,EURope_Market_Planning_-_Wave2_Market_Entry_Pmo,EURope_Market_Planning_-_Governance_Pmo,EURope_Market_Planning_-_Governance_Pmo_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_Sop_Blue_Book_-_Accident_Service_Operation_Process,Service_Sop_Blue_Book_-_Roadside_Assistance_Operation_Process_-_Ecall,Fota_Operation_-_Fota_Release_Process,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation_Management_Process,Technical_Training_-_Technical_Training_Management_Process,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_RetURn_NIO_Life_Products,EU_Quality_Issue_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_SCRap_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness_Management,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order_Management,Service_ResoURces_-_CoURtesy_Car_Policy_And_Operation_Process,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation_Process</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_Sop_Blue_Book_-_One_Click_Service_Operation_Process,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO_App(In Progress)</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning_And_Operation_Preparation_Process</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory_Management_Process</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Long_Term_Volume_Planning,Option_Offer,Pricing</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
     <t>User_Closed-Loop</t>
   </si>
   <si>
-    <t>EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_NSCHUB_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Partners_Cooperation,EU_Service_-_After_service_-_Service_Partners_Cooperation_-_Service_Partners_Nomination_and_Cooperation_Process,EU_Service_-_After_service_-_Service_Product_-_Insurance_Product_Design_and_Operation_Process ,EU_Service_-_After_service_-_Service_Product_-_Innovative_Service_Product_Design_and_Operation_Process</t>
-  </si>
-  <si>
-    <t>EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process</t>
+    <t>Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Network_-_NscHub_Planning_And_Operation_Preparation_Process,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process,Service_Product_-_InsURance_Product_Design_And_Operation_Process,Service_Product_-_Innovative_Service_Product_Design_And_Operation_Process,Accessory_Planning_&amp;_Operation_-_Accessory_Order_ProcessLocal_SoURcingExport</t>
+  </si>
+  <si>
+    <t>Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Network_-_NscHub_Planning_And_Operation_Preparation_Process,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process,Service_Product_-_InsURance_Product_Design_And_Operation_Process,Service_Product_-_Innovative_Service_Product_Design_And_Operation_Process</t>
+  </si>
+  <si>
+    <t>Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation_Process,Spare_Parts_Planning_&amp;_Operation_-_Logistics_Management_Process_-_Supplier</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Logistics_Management_Process_-_Logistics</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Global_Processes,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Sales (Uo),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation_Process</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Charging(Issues)</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation_Process</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>
@@ -600,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,22 +661,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -663,22 +684,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -689,22 +710,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -715,22 +736,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -741,22 +759,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -767,22 +782,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -793,22 +808,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -819,22 +834,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -845,22 +857,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -871,22 +883,19 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -897,22 +906,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -923,22 +932,19 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -949,22 +955,19 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -975,22 +978,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1001,22 +1004,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1027,22 +1030,19 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1053,22 +1053,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1079,22 +1079,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1105,22 +1102,19 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1131,10 +1125,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1145,10 +1139,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1159,7 +1153,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1170,10 +1164,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1184,10 +1178,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,10 +1192,10 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1212,10 +1206,10 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1223,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1234,10 +1228,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1248,10 +1242,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1262,10 +1256,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,10 +1270,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1290,10 +1284,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1304,10 +1298,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1318,10 +1312,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1332,10 +1326,119 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="D36" t="s">
-        <v>67</v>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -166,82 +166,82 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues,Fellow_Complete_Testdrive_Process,Msrp_Pricing_Sop,User Behavior Tracking System (Ubts),Market_Intelligence_EURope,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,SubSCRiption_Pricing_Definition,SubSCRipiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees_Management,Commercial_Condition_For_Special_Deals,Trade_Ins,Rv_Study_Management,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues)</t>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fellow_Complete_Testdrive,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues)</t>
   </si>
   <si>
     <t>NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_App_Sales_-_Product_Launch,NIO_Life_-_App_Sales_-_After_Sales,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
   </si>
   <si>
-    <t>Complete_PURchasing_Process,Eb_Quartlery_5_Year_Budget_Planning_Process,Power_ProcURement,Power_EU_Supply_Chain_Order_To_Delivery,Power_ProcURement_-_Standard_Process,Power_ProcURement_-_Authorized_Process,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_LTO,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,Msrp_Pricing_Sop,Service_Sop_Blue_Book_-_Roadside_Assistance_Operation_Process_-_Rsa,Emergency_Response_-_EU_Emergency_Response_Process,Technical_Operation_-_Warranty_Policy_Release_And_Operation_Process,Technical_Operation_-_Maintenance_Policy_Release_And_Operation_Process,Technical_Operation_-_FRT_Management_Process,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Of Processing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,Msrp_Pricing_Sop,User Behavior Tracking System (Ubts),Market_Intelligence_EURope,Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_Mp_And_Launch_Stock_Ordering,Product_Briefing,Gtm_Cadence,Gtm_Milestone_Adjustment,OTA_Process,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_Order_ProcessLocal_SoURcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Sota&amp;Fota Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation</t>
-  </si>
-  <si>
-    <t>Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process,Service_Product_-_InsURance_Product_Design_And_Operation_Process,Service_Sop_Blue_Book_-_One_Click_Service_Operation_Process,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Sota&amp;Fota Update(Failed)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues,Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,User Behavior Tracking System (Ubts),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues</t>
-  </si>
-  <si>
-    <t>Fellow_Handles_A_Testdrive_Process,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval_Process,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_App_Sales,EU_Legal_-_Data_Protection,EURope_Market_Planning,EURope_Market_Planning_-_5_Yrs_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_FutURe_Portfolio_Mapping,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_InfrastURcutre,EURope_Market_Planning_-_Wave2_Market_Entry_Pmo,EURope_Market_Planning_-_Governance_Pmo,EURope_Market_Planning_-_Governance_Pmo_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_Sop_Blue_Book_-_Accident_Service_Operation_Process,Service_Sop_Blue_Book_-_Roadside_Assistance_Operation_Process_-_Ecall,Fota_Operation_-_Fota_Release_Process,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation_Management_Process,Technical_Training_-_Technical_Training_Management_Process,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_RetURn_NIO_Life_Products,EU_Quality_Issue_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_SCRap_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness_Management,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order_Management,Service_ResoURces_-_CoURtesy_Car_Policy_And_Operation_Process,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation_Process</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_Sop_Blue_Book_-_One_Click_Service_Operation_Process,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO_App(In Progress)</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning_And_Operation_Preparation_Process</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory_Management_Process</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Long_Term_Volume_Planning,Option_Offer,Pricing</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
+  </si>
+  <si>
+    <t>Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed)</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning_And_Operation_Preparation,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
+  </si>
+  <si>
+    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_App_Sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning_And_Operation_Preparation</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Long_Term_Volume_Planning,Option_Offer,Pricing</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
     <t>User_Closed-Loop</t>
   </si>
   <si>
-    <t>Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Network_-_NscHub_Planning_And_Operation_Preparation_Process,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process,Service_Product_-_InsURance_Product_Design_And_Operation_Process,Service_Product_-_Innovative_Service_Product_Design_And_Operation_Process,Accessory_Planning_&amp;_Operation_-_Accessory_Order_ProcessLocal_SoURcingExport</t>
-  </si>
-  <si>
-    <t>Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Network_-_NscHub_Planning_And_Operation_Preparation_Process,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process,Service_Product_-_InsURance_Product_Design_And_Operation_Process,Service_Product_-_Innovative_Service_Product_Design_And_Operation_Process</t>
-  </si>
-  <si>
-    <t>Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process</t>
-  </si>
-  <si>
-    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation_Process,Spare_Parts_Planning_&amp;_Operation_-_Logistics_Management_Process_-_Supplier</t>
-  </si>
-  <si>
-    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Logistics_Management_Process_-_Logistics</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Global_Processes,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Sales (Uo),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
-  </si>
-  <si>
-    <t>Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation_Process</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Charging(Issues)</t>
-  </si>
-  <si>
-    <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation_Process</t>
+    <t>Service_Network_-_RDC_Planning_And_Operation_Preparation,Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Network_-_NSCHub_Planning_And_Operation_Preparation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport</t>
+  </si>
+  <si>
+    <t>Service_Network_-_RDC_Planning_And_Operation_Preparation,Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Network_-_NSCHub_Planning_And_Operation_Preparation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+  </si>
+  <si>
+    <t>Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues)</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="82">
   <si>
     <t>System</t>
   </si>
@@ -163,16 +163,19 @@
     <t>Power_Charging_Issues_Response_Team</t>
   </si>
   <si>
+    <t>NIO_Finance</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
-    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fellow_Complete_Testdrive,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues)</t>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fellow_Complete_Testdrive,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process</t>
   </si>
   <si>
     <t>NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_App_Sales_-_Product_Launch,NIO_Life_-_App_Sales_-_After_Sales,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
   </si>
   <si>
-    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
   </si>
   <si>
     <t>Maintenance Of Register Ofing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
@@ -196,7 +199,7 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_App_Sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation</t>
+    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_App_Sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
@@ -242,6 +245,9 @@
   </si>
   <si>
     <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation</t>
+  </si>
+  <si>
+    <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>
@@ -624,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,19 +667,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -684,22 +690,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -710,22 +716,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -736,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -759,19 +765,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -782,22 +788,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -808,22 +814,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -834,19 +840,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -857,22 +863,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -883,19 +889,19 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -906,22 +912,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -932,19 +938,19 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -955,19 +961,19 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -978,22 +984,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1004,22 +1010,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1030,19 +1036,19 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1053,22 +1059,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1079,19 +1085,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1102,19 +1108,19 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1125,10 +1131,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1139,10 +1145,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1153,7 +1159,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1164,10 +1170,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1178,10 +1184,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1192,10 +1198,10 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1206,10 +1212,10 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1217,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1228,10 +1234,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1242,10 +1248,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1256,10 +1262,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1270,10 +1276,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1284,10 +1290,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1298,10 +1304,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1312,10 +1318,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1326,10 +1332,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1340,10 +1346,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1354,10 +1360,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1368,10 +1374,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1382,10 +1388,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1396,10 +1402,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1410,10 +1416,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1424,10 +1430,10 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1438,7 +1444,21 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -172,7 +172,7 @@
     <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fellow_Complete_Testdrive,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process</t>
   </si>
   <si>
-    <t>NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_App_Sales_-_Product_Launch,NIO_Life_-_App_Sales_-_After_Sales,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
+    <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
   </si>
   <si>
     <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
@@ -199,7 +199,7 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_App_Sales,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -175,7 +175,7 @@
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
   </si>
   <si>
-    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
+    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses</t>
   </si>
   <si>
     <t>Maintenance Of Register Ofing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -175,16 +175,16 @@
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
   </si>
   <si>
-    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
   </si>
   <si>
-    <t>Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed)</t>
+    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed)</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring</t>
@@ -193,19 +193,19 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
   </si>
   <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning_And_Operation_Preparation,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
   </si>
   <si>
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
+    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
   </si>
   <si>
     <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning_And_Operation_Preparation</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort</t>
@@ -217,16 +217,16 @@
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
-    <t>User_Closed-Loop</t>
-  </si>
-  <si>
-    <t>Service_Network_-_RDC_Planning_And_Operation_Preparation,Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Network_-_NSCHub_Planning_And_Operation_Preparation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport</t>
-  </si>
-  <si>
-    <t>Service_Network_-_RDC_Planning_And_Operation_Preparation,Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Network_-_NSCHub_Planning_And_Operation_Preparation,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
-  </si>
-  <si>
-    <t>Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation</t>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop</t>
+  </si>
+  <si>
+    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport</t>
+  </si>
+  <si>
+    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+  </si>
+  <si>
+    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning</t>
   </si>
   <si>
     <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
   <si>
     <t>System</t>
   </si>
@@ -175,7 +175,7 @@
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
   </si>
   <si>
-    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
+    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
   </si>
   <si>
     <t>Maintenance Of Register Ofing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
@@ -184,25 +184,28 @@
     <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
   </si>
   <si>
-    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed)</t>
+    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed)</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring</t>
   </si>
   <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+  </si>
+  <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
   </si>
   <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
   </si>
   <si>
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning</t>
@@ -211,7 +214,7 @@
     <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Long_Term_Volume_Planning,Option_Offer,Pricing</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Long_Term_Volume_Planning,Option_Offer,Pricing</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
@@ -235,7 +238,7 @@
     <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),Service_SOP_-_Blue_Book_-_One_Click_Service_Operation</t>
   </si>
   <si>
     <t>Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation</t>
@@ -670,16 +673,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -696,16 +699,16 @@
         <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -722,16 +725,16 @@
         <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -745,16 +748,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -768,16 +771,16 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -794,16 +797,16 @@
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -820,16 +823,16 @@
         <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -843,16 +846,16 @@
         <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -869,16 +872,16 @@
         <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -892,16 +895,16 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -918,16 +921,16 @@
         <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -941,16 +944,16 @@
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -964,16 +967,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -990,16 +993,16 @@
         <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1016,16 +1019,16 @@
         <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1038,17 +1041,20 @@
       <c r="C17" t="s">
         <v>50</v>
       </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1062,19 +1068,19 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1088,16 +1094,16 @@
         <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1111,16 +1117,16 @@
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1134,7 +1140,7 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1148,7 +1154,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1173,7 +1179,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1187,7 +1193,7 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1201,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1215,7 +1221,7 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1237,7 +1243,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1251,7 +1257,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1265,7 +1271,7 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1279,7 +1285,7 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1293,7 +1299,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1307,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1321,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1335,7 +1341,7 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1349,7 +1355,7 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1363,7 +1369,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1377,7 +1383,7 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1405,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1419,7 +1425,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1433,7 +1439,7 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1458,7 +1464,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
   <si>
     <t>System</t>
   </si>
@@ -169,13 +169,16 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fellow_Complete_Testdrive,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process</t>
+    <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
+  </si>
+  <si>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fellow_Complete_Testdrive,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process</t>
   </si>
   <si>
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
   </si>
   <si>
-    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
+    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
   </si>
   <si>
     <t>Maintenance Of Register Ofing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
@@ -202,10 +205,10 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
+    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_-_Europe_Business_Enabling_-_Market_Entry</t>
+  </si>
+  <si>
+    <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning</t>
@@ -250,7 +253,7 @@
     <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation</t>
   </si>
   <si>
-    <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan</t>
+    <t>EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>
@@ -672,17 +675,20 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -696,19 +702,19 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -722,19 +728,19 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -748,16 +754,16 @@
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -771,16 +777,16 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -794,19 +800,19 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -820,19 +826,19 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -846,16 +852,16 @@
         <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -869,19 +875,19 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -895,16 +901,16 @@
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -918,19 +924,19 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -944,16 +950,16 @@
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -967,16 +973,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -990,19 +996,19 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1016,19 +1022,19 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1042,19 +1048,19 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,19 +1074,19 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1094,16 +1100,16 @@
         <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1117,16 +1123,16 @@
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1140,7 +1146,7 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1154,7 +1160,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1179,7 +1185,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1193,7 +1199,7 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1207,7 +1213,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1221,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1243,7 +1249,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1257,7 +1263,7 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1271,7 +1277,7 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1285,7 +1291,7 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1299,7 +1305,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1313,7 +1319,7 @@
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1327,7 +1333,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1341,7 +1347,7 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1355,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1369,7 +1375,7 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1383,7 +1389,7 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1397,7 +1403,7 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1411,7 +1417,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1425,7 +1431,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1439,7 +1445,7 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1464,7 +1470,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -172,52 +172,52 @@
     <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
   </si>
   <si>
-    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Fellow_Complete_Testdrive,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Fellow_Complete_Testdrive,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study</t>
   </si>
   <si>
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
   </si>
   <si>
-    <t>Complete_Purchasing,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_EU_Supply_Chain_Order_To_Delivery,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Option_Offer,Pricing,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification)</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
-  </si>
-  <si>
-    <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring</t>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring</t>
   </si>
   <si>
     <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,User Behavior Tracking System (UBTS),Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Service_Resources_-_Courtesy_Car_Policy_And_Operation</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_RDC_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,User Behavior Tracking System (UBTS),Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
   </si>
   <si>
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,EU_Legal_-_Data_Protection,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,FOTA_Operation_-_FOTA_Release,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Quality_Issue_Management,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,EB_-_Europe_Business_Enabling_-_Market_Entry</t>
-  </si>
-  <si>
-    <t>Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,Service_Network_-_RDC_Planning</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Long_Term_Volume_Planning,Option_Offer,Pricing</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Service_Network_-_RDC_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Long_Term_Volume_Planning,Pricing,Option_Offer</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
@@ -226,34 +226,34 @@
     <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop</t>
   </si>
   <si>
-    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport</t>
-  </si>
-  <si>
-    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export</t>
+  </si>
+  <si>
+    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
   </si>
   <si>
     <t>Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning</t>
   </si>
   <si>
-    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier</t>
-  </si>
-  <si>
-    <t>Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),Service_SOP_-_Blue_Book_-_One_Click_Service_Operation</t>
-  </si>
-  <si>
-    <t>Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues)</t>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues)</t>
   </si>
   <si>
     <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation</t>
   </si>
   <si>
-    <t>EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan</t>
+    <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -175,13 +175,13 @@
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Fellow_Complete_Testdrive,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study</t>
   </si>
   <si>
-    <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
-  </si>
-  <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
-  </si>
-  <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies</t>
+    <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
+  </si>
+  <si>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation</t>
+  </si>
+  <si>
+    <t>Maintenance Of Register Ofing Activities (Ropa),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
@@ -205,7 +205,7 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
@@ -214,7 +214,7 @@
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Service_Network_-_RDC_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Long_Term_Volume_Planning,Pricing,Option_Offer</t>
@@ -241,10 +241,10 @@
     <t>Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR</t>
-  </si>
-  <si>
-    <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up</t>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues)</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -172,7 +172,7 @@
     <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Fellow_Complete_Testdrive,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Fellow_Complete_Testdrive,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,MSRP_Pricing_SOP,User_Behavior_Tracking_System_-_UBTS,Market_Intelligence_Europe,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study</t>
   </si>
   <si>
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
@@ -181,10 +181,10 @@
     <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation</t>
   </si>
   <si>
-    <t>Maintenance Of Register Ofing Activities (Ropa),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User_Behavior_Tracking_System_-_UBTS,Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
@@ -199,16 +199,16 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
   </si>
   <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_RDC_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,User Behavior Tracking System (UBTS),Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_RDC_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,User_Behavior_Tracking_System_-_UBTS,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
   </si>
   <si>
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation</t>
-  </si>
-  <si>
-    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress)</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Service_Network_-_RDC_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
@@ -241,13 +241,13 @@
     <t>Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life</t>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life</t>
   </si>
   <si>
     <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues)</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging</t>
   </si>
   <si>
     <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -172,19 +172,19 @@
     <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Fellow_Complete_Testdrive,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,MSRP_Pricing_SOP,User_Behavior_Tracking_System_-_UBTS,Market_Intelligence_Europe,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study</t>
   </si>
   <si>
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation</t>
-  </si>
-  <si>
-    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,MSRP_Pricing_SOP,User_Behavior_Tracking_System_-_UBTS,Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room</t>
+  </si>
+  <si>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
@@ -199,13 +199,13 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation</t>
   </si>
   <si>
-    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_RDC_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,User_Behavior_Tracking_System_-_UBTS,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Service_Network_-_RDC_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application</t>
   </si>
   <si>
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Fellow_Handles_A_Testdrive,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
@@ -217,7 +217,7 @@
     <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Long_Term_Volume_Planning,Pricing,Option_Offer</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -178,7 +178,7 @@
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,EB_Quartlery_5_Year_Budget_Planning,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room</t>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
   </si>
   <si>
     <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -172,7 +172,7 @@
     <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule</t>
   </si>
   <si>
-    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study</t>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Trade_ins,RV_Study,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
   </si>
   <si>
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
@@ -181,13 +181,13 @@
     <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
   </si>
   <si>
-    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Network_-_Body_Repair_Shop_Planning,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring</t>
@@ -205,7 +205,7 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU ,Internal_Referral_Process</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
@@ -241,7 +241,7 @@
     <t>Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life</t>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
   </si>
   <si>
     <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -178,7 +178,7 @@
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management</t>
   </si>
   <si>
     <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="87">
   <si>
     <t>System</t>
   </si>
@@ -166,6 +166,9 @@
     <t>NIO_Finance</t>
   </si>
   <si>
+    <t>Babel_system</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -181,7 +184,7 @@
     <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management</t>
   </si>
   <si>
-    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
+    <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,COE_Digital_-_Digital_development_PMO_-_Online_Issue_of_Bugs</t>
   </si>
   <si>
     <t>Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch</t>
@@ -205,7 +208,7 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU ,Internal_Referral_Process</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU ,Internal_Referral_Process ,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
@@ -256,6 +259,9 @@
     <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan</t>
   </si>
   <si>
+    <t>COE_Digital_-_Digital_development_PMO_-_Translation_process_for_NIO_App_release</t>
+  </si>
+  <si>
     <t>https://titan-new-eu.nioint.com</t>
   </si>
   <si>
@@ -263,6 +269,9 @@
   </si>
   <si>
     <t>Example Link</t>
+  </si>
+  <si>
+    <t>文案系统傻瓜式使用教程(Babel_system instruction)</t>
   </si>
   <si>
     <t>Yue Ma</t>
@@ -636,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,22 +682,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -699,22 +708,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -725,22 +734,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -751,19 +760,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -774,19 +783,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -797,22 +806,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -823,22 +832,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -849,19 +858,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -872,22 +881,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -898,19 +907,19 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -921,22 +930,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -947,19 +956,19 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -970,19 +979,19 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -993,22 +1002,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1019,22 +1028,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1045,22 +1054,22 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1071,22 +1080,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1097,19 +1106,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1120,19 +1129,19 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1143,10 +1152,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1157,10 +1166,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1171,7 +1180,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1182,10 +1191,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1196,10 +1205,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1210,10 +1219,10 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1224,10 +1233,10 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1235,7 +1244,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1246,10 +1255,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1260,10 +1269,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1274,10 +1283,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1288,13 +1297,13 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1302,13 +1311,13 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1316,13 +1325,13 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1330,13 +1339,13 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1344,13 +1353,13 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1358,13 +1367,13 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1372,13 +1381,13 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1386,13 +1395,13 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1400,13 +1409,13 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1414,13 +1423,13 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1428,13 +1437,13 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1442,13 +1451,13 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1456,10 +1465,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1467,10 +1476,27 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="D45" t="s">
-        <v>79</v>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -181,7 +181,7 @@
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management</t>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management,EU_Legal_-_Corporate_Changes</t>
   </si>
   <si>
     <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,COE_Digital_-_Digital_development_PMO_-_Online_Issue_of_Bugs</t>
@@ -208,7 +208,7 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU ,Internal_Referral_Process ,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU,Internal_Referral_Process,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_Seeds,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,ROPA_Reporting</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -208,7 +208,7 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU,Internal_Referral_Process,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_Seeds,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,ROPA_Reporting</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU,Internal_Referral_Process,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_Seeds,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,ROPA_Reporting,Mail_Intake,Contract_Review,User_Term_Changes</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
   <si>
     <t>System</t>
   </si>
@@ -169,6 +169,12 @@
     <t>Babel_system</t>
   </si>
   <si>
+    <t>Custom_Developed_System</t>
+  </si>
+  <si>
+    <t>Workday</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -181,7 +187,7 @@
     <t>NIO_Life_-_Internal_Application,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>
   </si>
   <si>
-    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management,EU_Legal_-_Corporate_Changes</t>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,Complete_Purchasing_Process,Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,Emergency_Response_-_EU_Emergency_Response,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_FRT_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Technical_Operation,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Order_to_Delivery,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process_-_OPA,EU_Power_VOC_War_Room,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management,EU_Legal_-_Corporate_Changes</t>
   </si>
   <si>
     <t>Maintenance_Of_Register_Ofing_Activities_-_Ropa,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,5Yr_Planning_Flow,Create_A_New_Promotion,COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation,COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,OTA,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,COE_Digital_-_Digital_development_PMO_-_Online_Issue_of_Bugs</t>
@@ -260,6 +266,12 @@
   </si>
   <si>
     <t>COE_Digital_-_Digital_development_PMO_-_Translation_process_for_NIO_App_release</t>
+  </si>
+  <si>
+    <t>NIO_Value_Evaluation_and_Development_Season</t>
+  </si>
+  <si>
+    <t>EU_standard_offboarding_process,EU_standard_onboarding_process,EU_standard_probation_process</t>
   </si>
   <si>
     <t>https://titan-new-eu.nioint.com</t>
@@ -645,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,22 +694,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -708,22 +720,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -734,22 +746,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -760,19 +772,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -783,19 +795,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -806,22 +818,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -832,22 +844,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -858,19 +870,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -881,22 +893,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -907,19 +919,19 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -930,22 +942,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -956,19 +968,19 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -979,19 +991,19 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1002,22 +1014,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1028,22 +1040,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1054,22 +1066,22 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1080,22 +1092,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1106,19 +1118,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1129,19 +1141,19 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1152,10 +1164,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1166,10 +1178,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1180,7 +1192,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1191,10 +1203,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1205,10 +1217,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1219,10 +1231,10 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1233,10 +1245,10 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1244,7 +1256,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1255,10 +1267,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1269,10 +1281,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1283,10 +1295,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1297,10 +1309,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1311,10 +1323,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1325,10 +1337,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1339,10 +1351,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1353,10 +1365,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1367,10 +1379,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1381,10 +1393,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1395,10 +1407,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1409,10 +1421,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1423,10 +1435,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1437,10 +1449,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1451,10 +1463,10 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1465,7 +1477,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1476,10 +1488,10 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1490,12 +1502,40 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="D46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
         <v>85</v>
       </c>
     </row>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -217,7 +217,7 @@
     <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU,Internal_Referral_Process,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_Seeds,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,ROPA_Reporting,Mail_Intake,Contract_Review,User_Term_Changes</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App</t>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,EB_User_Development_-_Communication_&amp;_Events_-_Tech_Talk</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Service_Network_-_RDC_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
@@ -250,7 +250,7 @@
     <t>Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle</t>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting</t>
   </si>
   <si>
     <t>Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up</t>

--- a/helper/System.xlsx
+++ b/helper/System.xlsx
@@ -214,7 +214,7 @@
     <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
-    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU,Internal_Referral_Process,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_Seeds,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,ROPA_Reporting,Mail_Intake,Contract_Review,User_Term_Changes</t>
+    <t>Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_Campaign_-_Service_Campaign_Release_And_Operation,Technical_Training_-_Technical_Training_Management,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,Europe_Market_Planning_-_5_Yrs_Planning,EB_User_Operation_-_Partner_Strategy,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Privacy_Impact_Assessment_-_Pia,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,EB_-_Europe_Business_Enabling_-_Market_Entry,FOTA_Operation_-_FOTA_Release,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,EU_Quality_Issue_Management,EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,Quality,Quality_Issue_Management,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,FOTA_Operation,FOTA_Operation_-_Operation_And_Close_Loop,Spare_Parts_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,Interview_Process_in_EU,Internal_Referral_Process,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_Seeds,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,EU_Legal_-_Data_Protection_-_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,ROPA_Reporting,Mail_Intake,Contract_Review,User_Term_Changes</t>
   </si>
   <si>
     <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,EB_User_Development_-_Communication_&amp;_Events_-_Tech_Talk</t>
@@ -268,7 +268,7 @@
     <t>COE_Digital_-_Digital_development_PMO_-_Translation_process_for_NIO_App_release</t>
   </si>
   <si>
-    <t>NIO_Value_Evaluation_and_Development_Season</t>
+    <t>NIO_Value_Evaluation_and_Development_Season,NIO VAU Management(Target Management)</t>
   </si>
   <si>
     <t>EU_standard_offboarding_process,EU_standard_onboarding_process,EU_standard_probation_process</t>
